--- a/Jogos_do_Dia/2024-02-19_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-02-19_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -657,7 +657,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bulgaria First League</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -669,89 +669,89 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cherno More</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD2" t="n">
         <v>3.3</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>4.22</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -812,130 +812,130 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>Coca-Cola</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.35</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.67</v>
+        <v>0.8</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.33</v>
+        <v>0.83</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.53</v>
+        <v>1.11</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.77</v>
+        <v>1.31</v>
       </c>
       <c r="AD3" t="n">
-        <v>3.3</v>
+        <v>2.42</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Bulgaria First League</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -947,128 +947,128 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Coca-Cola</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Cherno More</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.88</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U4" t="n">
         <v>2.1</v>
       </c>
-      <c r="K4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.5</v>
-      </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
-        <v>1.19</v>
+        <v>1.06</v>
       </c>
       <c r="X4" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.73</v>
+        <v>2.55</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.83</v>
+        <v>1.7</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.11</v>
+        <v>2.52</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.31</v>
+        <v>1.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.42</v>
+        <v>4.22</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.57</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1108,13 +1108,13 @@
         <v>3.76</v>
       </c>
       <c r="J5" t="n">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="K5" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L5" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M5" t="n">
         <v>1.41</v>
@@ -1135,10 +1135,10 @@
         <v>3.1</v>
       </c>
       <c r="S5" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="T5" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="U5" t="n">
         <v>1.77</v>
@@ -1247,13 +1247,13 @@
         <v>4.33</v>
       </c>
       <c r="J6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K6" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M6" t="n">
         <v>1.4</v>
@@ -1274,10 +1274,10 @@
         <v>3.15</v>
       </c>
       <c r="S6" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T6" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="U6" t="n">
         <v>1.8</v>
@@ -1352,7 +1352,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1364,116 +1364,116 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Voždovac</t>
+          <t>Asteras Tripolis</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Panaitolikos</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="I7" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.17</v>
+        <v>1.8</v>
       </c>
       <c r="K7" t="n">
-        <v>3.24</v>
+        <v>3.4</v>
       </c>
       <c r="L7" t="n">
-        <v>3.24</v>
+        <v>3.8</v>
       </c>
       <c r="M7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="N7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="O7" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="P7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AF7" t="n">
         <v>7.5</v>
       </c>
-      <c r="Q7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R7" t="n">
-        <v>3</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X7" t="n">
+      <c r="AG7" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AM7" t="n">
         <v>1.33</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
       </c>
       <c r="AN7" t="n">
         <v>0</v>
@@ -1491,7 +1491,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1503,116 +1503,116 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Asteras Tripolis</t>
+          <t>Voždovac</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Panaitolikos</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
         <v>2.1</v>
       </c>
-      <c r="I8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P8" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2</v>
-      </c>
       <c r="T8" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W8" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="X8" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.27</v>
+        <v>1.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.22</v>
+        <v>1.56</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.12</v>
+        <v>1.31</v>
       </c>
       <c r="AD8" t="n">
-        <v>2.34</v>
+        <v>2.87</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.91</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1642,128 +1642,128 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ismaily SC</t>
+          <t>İstanbul Başakşehir</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.33</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="J9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.75</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N9" t="n">
         <v>3.25</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.7</v>
       </c>
       <c r="O9" t="n">
         <v>1.02</v>
       </c>
       <c r="P9" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="R9" t="n">
-        <v>3.08</v>
+        <v>3.6</v>
       </c>
       <c r="S9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T9" t="n">
         <v>2</v>
       </c>
-      <c r="T9" t="n">
-        <v>1.8</v>
-      </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>1.8</v>
+        <v>1.13</v>
       </c>
       <c r="X9" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="Y9" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB9" t="n">
         <v>1.26</v>
       </c>
-      <c r="Z9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>1.43</v>
-      </c>
       <c r="AC9" t="n">
-        <v>1.73</v>
+        <v>1.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>3.16</v>
+        <v>2.36</v>
       </c>
       <c r="AE9" t="n">
-        <v>2.19</v>
+        <v>1.57</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.699999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.83</v>
+        <v>2.75</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="AI9" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.19</v>
+        <v>2.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.84</v>
+        <v>3.45</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="10">
@@ -1785,31 +1785,31 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>İstanbul Başakşehir</t>
+          <t>Beşiktaş</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="I10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4</v>
+      </c>
+      <c r="L10" t="n">
         <v>4.75</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.1</v>
       </c>
       <c r="M10" t="n">
         <v>1.33</v>
@@ -1818,22 +1818,22 @@
         <v>3.25</v>
       </c>
       <c r="O10" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="P10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="R10" t="n">
-        <v>3.6</v>
+        <v>4.12</v>
       </c>
       <c r="S10" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="U10" t="n">
         <v>1.73</v>
@@ -1842,73 +1842,73 @@
         <v>2</v>
       </c>
       <c r="W10" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AC10" t="n">
         <v>1.13</v>
       </c>
-      <c r="X10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>1.1</v>
-      </c>
       <c r="AD10" t="n">
-        <v>2.36</v>
+        <v>2.72</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="AF10" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AI10" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.43</v>
+        <v>2.28</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="AP10" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1920,134 +1920,134 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Beşiktaş</t>
+          <t>Ismaily SC</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H11" t="n">
         <v>2.1</v>
       </c>
-      <c r="H11" t="n">
-        <v>2.38</v>
-      </c>
       <c r="I11" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.62</v>
+        <v>3.9</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>1.91</v>
       </c>
       <c r="M11" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="N11" t="n">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P11" t="n">
-        <v>15</v>
+        <v>8.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="R11" t="n">
-        <v>4.12</v>
+        <v>3.08</v>
       </c>
       <c r="S11" t="n">
-        <v>1.63</v>
+        <v>1.98</v>
       </c>
       <c r="T11" t="n">
-        <v>2.15</v>
+        <v>1.74</v>
       </c>
       <c r="U11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AC11" t="n">
         <v>1.73</v>
       </c>
-      <c r="V11" t="n">
-        <v>2</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1.13</v>
-      </c>
       <c r="AD11" t="n">
-        <v>2.72</v>
+        <v>3.16</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.29</v>
+        <v>2.19</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG11" t="n">
-        <v>4.33</v>
+        <v>1.83</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AI11" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.58</v>
+        <v>1.39</v>
       </c>
       <c r="AK11" t="n">
-        <v>2.28</v>
+        <v>2.67</v>
       </c>
       <c r="AL11" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AM11" t="n">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.7</v>
+        <v>2.19</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="AP11" t="n">
-        <v>3.75</v>
+        <v>2.84</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>Denmark Superliga</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -2059,134 +2059,134 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Vilaverdense</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>AGF</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="H12" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>3.3</v>
+        <v>3.47</v>
       </c>
       <c r="L12" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P12" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.8</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P12" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R12" t="n">
-        <v>3</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.73</v>
-      </c>
       <c r="X12" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Z12" t="n">
         <v>1</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.1</v>
+        <v>1.56</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.58</v>
+        <v>1.22</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="AD12" t="n">
-        <v>3.02</v>
+        <v>2.45</v>
       </c>
       <c r="AE12" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.91</v>
+        <v>1.59</v>
       </c>
       <c r="AH12" t="n">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AI12" t="n">
-        <v>5</v>
+        <v>2.71</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="AK12" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.42</v>
+        <v>2.05</v>
       </c>
       <c r="AM12" t="n">
-        <v>2.62</v>
+        <v>1.7</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.67</v>
+        <v>2.67</v>
       </c>
       <c r="AO12" t="n">
-        <v>2.1</v>
+        <v>1.43</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.05</v>
+        <v>4.15</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.7</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Denmark Superliga</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -2198,128 +2198,128 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Vilaverdense</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>AGF</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="I13" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K13" t="n">
         <v>3.3</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="M13" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="N13" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="P13" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="R13" t="n">
-        <v>2.73</v>
+        <v>3</v>
       </c>
       <c r="S13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.91</v>
       </c>
-      <c r="T13" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.7</v>
-      </c>
       <c r="W13" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X13" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Z13" t="n">
         <v>1</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.56</v>
+        <v>2.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.22</v>
+        <v>1.58</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.45</v>
+        <v>3.02</v>
       </c>
       <c r="AE13" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="AF13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.59</v>
+        <v>1.91</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AI13" t="n">
-        <v>2.71</v>
+        <v>5</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="AK13" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="AL13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AP13" t="n">
         <v>2.05</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AQ13" t="n">
         <v>1.7</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>1.17</v>
       </c>
     </row>
     <row r="14">
@@ -2359,13 +2359,13 @@
         <v>3.9</v>
       </c>
       <c r="J14" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="K14" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L14" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M14" t="n">
         <v>1.42</v>
@@ -2386,10 +2386,10 @@
         <v>3.35</v>
       </c>
       <c r="S14" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="T14" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U14" t="n">
         <v>1.77</v>
@@ -2498,13 +2498,13 @@
         <v>2.6</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L15" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="M15" t="n">
         <v>1.4</v>
@@ -2839,25 +2839,25 @@
         <v>2.84</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AL17" t="n">
         <v>1.7</v>
@@ -2872,10 +2872,10 @@
         <v>1.7</v>
       </c>
       <c r="AP17" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="18">
@@ -2915,13 +2915,13 @@
         <v>5.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="K18" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="L18" t="n">
-        <v>3.9</v>
+        <v>4.55</v>
       </c>
       <c r="M18" t="n">
         <v>1.62</v>
@@ -2936,10 +2936,10 @@
         <v>6.36</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R18" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S18" t="n">
         <v>2.7</v>
@@ -3054,13 +3054,13 @@
         <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>2.9</v>
+        <v>2.68</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="L19" t="n">
-        <v>2.45</v>
+        <v>2.43</v>
       </c>
       <c r="M19" t="n">
         <v>1.47</v>
@@ -3081,10 +3081,10 @@
         <v>2.8</v>
       </c>
       <c r="S19" t="n">
-        <v>2.11</v>
+        <v>2.25</v>
       </c>
       <c r="T19" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="U19" t="n">
         <v>1.91</v>
@@ -3193,13 +3193,13 @@
         <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>2.05</v>
+        <v>1.79</v>
       </c>
       <c r="K20" t="n">
         <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="M20" t="n">
         <v>1.33</v>
@@ -3332,13 +3332,13 @@
         <v>5.5</v>
       </c>
       <c r="J21" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="K21" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="M21" t="n">
         <v>1.44</v>
@@ -3362,7 +3362,7 @@
         <v>1.95</v>
       </c>
       <c r="T21" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U21" t="n">
         <v>2.05</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -3498,10 +3498,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="T22" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>

--- a/Jogos_do_Dia/2024-02-19_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-02-19_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -657,7 +657,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Bulgaria First League</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -669,128 +669,128 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>Cherno More</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.67</v>
+        <v>2.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.33</v>
+        <v>1.7</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.53</v>
+        <v>2.52</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>3.3</v>
+        <v>4.22</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="3">
@@ -812,130 +812,130 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Coca-Cola</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.35</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.8</v>
+        <v>1.67</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.83</v>
+        <v>2.33</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.11</v>
+        <v>1.53</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.31</v>
+        <v>1.77</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.42</v>
+        <v>3.3</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.57</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bulgaria First League</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -947,128 +947,128 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Coca-Cola</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cherno More</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>2.88</v>
       </c>
       <c r="H4" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
-        <v>1.48</v>
+        <v>2.17</v>
       </c>
       <c r="K4" t="n">
-        <v>3.94</v>
+        <v>2.59</v>
       </c>
       <c r="L4" t="n">
-        <v>5.31</v>
+        <v>4.42</v>
       </c>
       <c r="M4" t="n">
-        <v>1.36</v>
+        <v>1.64</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>2.13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="P4" t="n">
-        <v>8.300000000000001</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="R4" t="n">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T4" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="W4" t="n">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="X4" t="n">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.55</v>
+        <v>1.73</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.7</v>
+        <v>0.83</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.52</v>
+        <v>1.11</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.7</v>
+        <v>1.31</v>
       </c>
       <c r="AD4" t="n">
-        <v>4.22</v>
+        <v>2.42</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="5">
@@ -1135,10 +1135,10 @@
         <v>3.1</v>
       </c>
       <c r="S5" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="T5" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="U5" t="n">
         <v>1.77</v>
@@ -1247,13 +1247,13 @@
         <v>4.33</v>
       </c>
       <c r="J6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L6" t="n">
         <v>3.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.6</v>
       </c>
       <c r="M6" t="n">
         <v>1.4</v>
@@ -1274,7 +1274,7 @@
         <v>3.15</v>
       </c>
       <c r="S6" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="T6" t="n">
         <v>1.73</v>
@@ -1343,10 +1343,10 @@
         <v>1.23</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>4.78</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="7">
@@ -1413,10 +1413,10 @@
         <v>2.98</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T7" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U7" t="n">
         <v>1.91</v>
@@ -1476,16 +1476,16 @@
         <v>1.33</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>6.04</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="8">
@@ -1525,13 +1525,13 @@
         <v>3.7</v>
       </c>
       <c r="J8" t="n">
-        <v>2.08</v>
+        <v>2.17</v>
       </c>
       <c r="K8" t="n">
-        <v>3.01</v>
+        <v>3.12</v>
       </c>
       <c r="L8" t="n">
-        <v>3.03</v>
+        <v>3.36</v>
       </c>
       <c r="M8" t="n">
         <v>1.4</v>
@@ -1552,10 +1552,10 @@
         <v>3</v>
       </c>
       <c r="S8" t="n">
-        <v>2.1</v>
+        <v>2.17</v>
       </c>
       <c r="T8" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="U8" t="n">
         <v>1.83</v>
@@ -1588,43 +1588,43 @@
         <v>2.87</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>3.76</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="9">
@@ -1664,13 +1664,13 @@
         <v>4.75</v>
       </c>
       <c r="J9" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>3.89</v>
       </c>
       <c r="L9" t="n">
-        <v>4.2</v>
+        <v>4.46</v>
       </c>
       <c r="M9" t="n">
         <v>1.33</v>
@@ -1691,7 +1691,7 @@
         <v>3.6</v>
       </c>
       <c r="S9" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1803,13 +1803,13 @@
         <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>4.16</v>
       </c>
       <c r="L10" t="n">
-        <v>4.75</v>
+        <v>5.4</v>
       </c>
       <c r="M10" t="n">
         <v>1.33</v>
@@ -1830,7 +1830,7 @@
         <v>4.12</v>
       </c>
       <c r="S10" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="T10" t="n">
         <v>2.2</v>
@@ -1942,13 +1942,13 @@
         <v>2.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.9</v>
+        <v>4.01</v>
       </c>
       <c r="K11" t="n">
-        <v>3.15</v>
+        <v>3.28</v>
       </c>
       <c r="L11" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="M11" t="n">
         <v>1.4</v>
@@ -1969,10 +1969,10 @@
         <v>3.08</v>
       </c>
       <c r="S11" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="U11" t="n">
         <v>1.83</v>
@@ -2026,7 +2026,7 @@
         <v>2.67</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="AM11" t="n">
         <v>2.06</v>
@@ -2047,7 +2047,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Denmark Superliga</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -2059,134 +2059,134 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Vilaverdense</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AGF</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="I12" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="K12" t="n">
-        <v>3.47</v>
+        <v>3.5</v>
       </c>
       <c r="L12" t="n">
-        <v>2.07</v>
+        <v>1.73</v>
       </c>
       <c r="M12" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="N12" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="P12" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="R12" t="n">
-        <v>2.73</v>
+        <v>3</v>
       </c>
       <c r="S12" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="T12" t="n">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="U12" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="W12" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X12" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Z12" t="n">
         <v>1</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.56</v>
+        <v>2.1</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.22</v>
+        <v>1.58</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="AD12" t="n">
-        <v>2.45</v>
+        <v>3.02</v>
       </c>
       <c r="AE12" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="AF12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.59</v>
+        <v>1.91</v>
       </c>
       <c r="AH12" t="n">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AI12" t="n">
-        <v>2.71</v>
+        <v>5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="AK12" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="AL12" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AP12" t="n">
         <v>2.05</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AQ12" t="n">
         <v>1.7</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>1.17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>Denmark Superliga</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -2198,128 +2198,128 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Vilaverdense</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>AGF</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="H13" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="J13" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
         <v>3.3</v>
       </c>
       <c r="L13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P13" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W13" t="n">
         <v>1.8</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P13" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R13" t="n">
-        <v>3</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.73</v>
-      </c>
       <c r="X13" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Z13" t="n">
         <v>1</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.1</v>
+        <v>1.56</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.58</v>
+        <v>1.22</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="AD13" t="n">
-        <v>3.02</v>
+        <v>2.45</v>
       </c>
       <c r="AE13" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.91</v>
+        <v>1.59</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AI13" t="n">
-        <v>5</v>
+        <v>2.71</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="AK13" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.42</v>
+        <v>2.05</v>
       </c>
       <c r="AM13" t="n">
-        <v>2.62</v>
+        <v>1.7</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.67</v>
+        <v>2.67</v>
       </c>
       <c r="AO13" t="n">
-        <v>2.1</v>
+        <v>1.43</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.05</v>
+        <v>4.15</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.7</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="14">
@@ -2386,7 +2386,7 @@
         <v>3.35</v>
       </c>
       <c r="S14" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="T14" t="n">
         <v>1.8</v>
@@ -2525,10 +2525,10 @@
         <v>3.3</v>
       </c>
       <c r="S15" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T15" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="U15" t="n">
         <v>1.79</v>
@@ -2915,13 +2915,13 @@
         <v>5.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="K18" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>4.55</v>
+        <v>4.2</v>
       </c>
       <c r="M18" t="n">
         <v>1.62</v>
@@ -2939,13 +2939,13 @@
         <v>1.53</v>
       </c>
       <c r="R18" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S18" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="T18" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="U18" t="n">
         <v>2.38</v>
@@ -3054,13 +3054,13 @@
         <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>2.68</v>
+        <v>2.75</v>
       </c>
       <c r="K19" t="n">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="L19" t="n">
-        <v>2.43</v>
+        <v>2.45</v>
       </c>
       <c r="M19" t="n">
         <v>1.47</v>
@@ -3081,10 +3081,10 @@
         <v>2.8</v>
       </c>
       <c r="S19" t="n">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="T19" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="U19" t="n">
         <v>1.91</v>
@@ -3193,13 +3193,13 @@
         <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="K20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L20" t="n">
         <v>3.5</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.45</v>
       </c>
       <c r="M20" t="n">
         <v>1.33</v>
@@ -3220,10 +3220,10 @@
         <v>4.3</v>
       </c>
       <c r="S20" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="T20" t="n">
-        <v>2.15</v>
+        <v>2.26</v>
       </c>
       <c r="U20" t="n">
         <v>1.62</v>
@@ -3332,13 +3332,13 @@
         <v>5.5</v>
       </c>
       <c r="J21" t="n">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="K21" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L21" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="M21" t="n">
         <v>1.44</v>
@@ -3359,10 +3359,10 @@
         <v>3</v>
       </c>
       <c r="S21" t="n">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="T21" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U21" t="n">
         <v>2.05</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>7.5</v>
+        <v>6.85</v>
       </c>
       <c r="K22" t="n">
-        <v>4.5</v>
+        <v>4.47</v>
       </c>
       <c r="L22" t="n">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -3498,10 +3498,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.66</v>
+        <v>1.85</v>
       </c>
       <c r="T22" t="n">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
